--- a/output/shipments.xlsx
+++ b/output/shipments.xlsx
@@ -1,32 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shipment1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Shipment2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Shipment3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Shipment4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Shipment5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Shipment6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Shipment7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Shipment8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Shipment9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Shipment10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Shipment11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Shipment12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Shipment13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Shipment14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Shipment15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Shipment16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Shipment17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Shipment18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Shipment19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Shipment20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Shipment21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Shipment22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Shipment23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Shipment24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Shipment25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Shipment26" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Shipment27" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Shipment28" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Shipment29" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Shipment30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Shipment31" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Shipment32" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Shipment33" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Shipment34" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Shipment35" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Shipment36" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Shipment37" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Shipment38" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Shipment39" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Shipment40" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Shipment41" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Shipment42" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Shipment43" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Shipment44" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Shipment45" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Shipment46" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Shipment47" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Shipment48" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Shipment49" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Shipment50" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Shipment51" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Shipment52" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Shipment53" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Shipment54" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Shipment55" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Shipment56" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Shipment57" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Shipment58" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Shipment59" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Shipment60" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Shipment61" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Shipment62" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Shipment63" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Shipment64" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="Shipment65" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="Shipment66" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="Shipment67" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="Shipment68" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="Shipment69" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="Shipment70" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet name="Shipment71" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet name="Shipment72" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet name="Shipment73" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet name="Shipment74" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet name="Shipment75" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet name="Shipment76" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet name="Shipment77" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet name="Shipment78" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet name="Shipment79" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet name="Shipment80" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet name="Shipment81" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet name="Shipment82" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet name="Shipment83" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet name="Shipment84" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet name="Shipment85" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet name="Shipment86" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet name="Shipment87" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet name="Shipment88" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet name="Shipment89" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet name="Shipment90" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet name="Shipment91" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet name="Shipment92" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet name="Shipment93" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet name="Shipment94" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet name="Shipment95" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet name="Shipment96" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet name="Shipment97" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet name="Shipment98" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet name="Shipment99" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet name="Shipment100" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet name="Shipment101" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet name="Shipment102" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet name="Shipment103" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet name="Shipment104" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet name="Shipment105" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet name="Shipment106" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet name="Shipment107" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet name="Shipment108" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet name="Shipment109" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet name="Shipment110" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet name="Shipment111" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet name="Shipment112" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet name="Shipment113" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet name="Shipment114" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet name="Shipment115" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet name="Shipment116" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet name="Shipment117" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet name="Shipment118" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet name="Shipment119" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet name="Shipment120" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet name="Shipment121" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet name="Shipment122" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="Shipment123" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="Shipment124" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet name="Shipment125" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet name="Shipment126" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet name="Shipment127" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet name="Shipment128" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet name="Shipment129" sheetId="129" state="visible" r:id="rId129"/>
+    <sheet name="Shipment130" sheetId="130" state="visible" r:id="rId130"/>
+    <sheet name="Shipment131" sheetId="131" state="visible" r:id="rId131"/>
+    <sheet name="Shipment132" sheetId="132" state="visible" r:id="rId132"/>
+    <sheet name="Shipment133" sheetId="133" state="visible" r:id="rId133"/>
+    <sheet name="Shipment134" sheetId="134" state="visible" r:id="rId134"/>
+    <sheet name="Shipment135" sheetId="135" state="visible" r:id="rId135"/>
+    <sheet name="Shipment136" sheetId="136" state="visible" r:id="rId136"/>
+    <sheet name="Shipment137" sheetId="137" state="visible" r:id="rId137"/>
+    <sheet name="Shipment138" sheetId="138" state="visible" r:id="rId138"/>
+    <sheet name="Shipment139" sheetId="139" state="visible" r:id="rId139"/>
+    <sheet name="Shipment140" sheetId="140" state="visible" r:id="rId140"/>
+    <sheet name="Shipment141" sheetId="141" state="visible" r:id="rId141"/>
+    <sheet name="Shipment142" sheetId="142" state="visible" r:id="rId142"/>
+    <sheet name="Shipment143" sheetId="143" state="visible" r:id="rId143"/>
+    <sheet name="Shipment144" sheetId="144" state="visible" r:id="rId144"/>
+    <sheet name="Shipment145" sheetId="145" state="visible" r:id="rId145"/>
+    <sheet name="Shipment146" sheetId="146" state="visible" r:id="rId146"/>
+    <sheet name="Shipment147" sheetId="147" state="visible" r:id="rId147"/>
+    <sheet name="Shipment148" sheetId="148" state="visible" r:id="rId148"/>
+    <sheet name="Shipment149" sheetId="149" state="visible" r:id="rId149"/>
+    <sheet name="Shipment150" sheetId="150" state="visible" r:id="rId150"/>
+    <sheet name="Shipment151" sheetId="151" state="visible" r:id="rId151"/>
+    <sheet name="Shipment152" sheetId="152" state="visible" r:id="rId152"/>
+    <sheet name="Shipment153" sheetId="153" state="visible" r:id="rId153"/>
+    <sheet name="Shipment154" sheetId="154" state="visible" r:id="rId154"/>
+    <sheet name="Shipment155" sheetId="155" state="visible" r:id="rId155"/>
+    <sheet name="Shipment156" sheetId="156" state="visible" r:id="rId156"/>
+    <sheet name="Shipment157" sheetId="157" state="visible" r:id="rId157"/>
+    <sheet name="Shipment158" sheetId="158" state="visible" r:id="rId158"/>
+    <sheet name="Shipment159" sheetId="159" state="visible" r:id="rId159"/>
+    <sheet name="Shipment160" sheetId="160" state="visible" r:id="rId160"/>
+    <sheet name="Shipment161" sheetId="161" state="visible" r:id="rId161"/>
+    <sheet name="Shipment162" sheetId="162" state="visible" r:id="rId162"/>
+    <sheet name="Shipment163" sheetId="163" state="visible" r:id="rId163"/>
+    <sheet name="Shipment164" sheetId="164" state="visible" r:id="rId164"/>
+    <sheet name="Shipment165" sheetId="165" state="visible" r:id="rId165"/>
+    <sheet name="Shipment166" sheetId="166" state="visible" r:id="rId166"/>
+    <sheet name="Shipment167" sheetId="167" state="visible" r:id="rId167"/>
+    <sheet name="Shipment168" sheetId="168" state="visible" r:id="rId168"/>
+    <sheet name="Shipment169" sheetId="169" state="visible" r:id="rId169"/>
+    <sheet name="Shipment170" sheetId="170" state="visible" r:id="rId170"/>
+    <sheet name="Shipment171" sheetId="171" state="visible" r:id="rId171"/>
+    <sheet name="Shipment172" sheetId="172" state="visible" r:id="rId172"/>
+    <sheet name="Shipment173" sheetId="173" state="visible" r:id="rId173"/>
+    <sheet name="Shipment174" sheetId="174" state="visible" r:id="rId174"/>
+    <sheet name="Shipment175" sheetId="175" state="visible" r:id="rId175"/>
+    <sheet name="Shipment176" sheetId="176" state="visible" r:id="rId176"/>
+    <sheet name="Shipment177" sheetId="177" state="visible" r:id="rId177"/>
+    <sheet name="Shipment178" sheetId="178" state="visible" r:id="rId178"/>
+    <sheet name="Shipment179" sheetId="179" state="visible" r:id="rId179"/>
+    <sheet name="Shipment180" sheetId="180" state="visible" r:id="rId180"/>
+    <sheet name="Shipment181" sheetId="181" state="visible" r:id="rId181"/>
+    <sheet name="Shipment182" sheetId="182" state="visible" r:id="rId182"/>
+    <sheet name="Shipment183" sheetId="183" state="visible" r:id="rId183"/>
+    <sheet name="Shipment184" sheetId="184" state="visible" r:id="rId184"/>
+    <sheet name="Shipment185" sheetId="185" state="visible" r:id="rId185"/>
+    <sheet name="Shipment186" sheetId="186" state="visible" r:id="rId186"/>
+    <sheet name="Shipment187" sheetId="187" state="visible" r:id="rId187"/>
+    <sheet name="Shipment188" sheetId="188" state="visible" r:id="rId188"/>
+    <sheet name="Shipment189" sheetId="189" state="visible" r:id="rId189"/>
+    <sheet name="Shipment190" sheetId="190" state="visible" r:id="rId190"/>
+    <sheet name="Shipment191" sheetId="191" state="visible" r:id="rId191"/>
+    <sheet name="Shipment192" sheetId="192" state="visible" r:id="rId192"/>
+    <sheet name="Shipment193" sheetId="193" state="visible" r:id="rId193"/>
+    <sheet name="Shipment194" sheetId="194" state="visible" r:id="rId194"/>
+    <sheet name="Shipment195" sheetId="195" state="visible" r:id="rId195"/>
+    <sheet name="Shipment196" sheetId="196" state="visible" r:id="rId196"/>
+    <sheet name="Shipment197" sheetId="197" state="visible" r:id="rId197"/>
+    <sheet name="Shipment198" sheetId="198" state="visible" r:id="rId198"/>
+    <sheet name="Shipment199" sheetId="199" state="visible" r:id="rId199"/>
+    <sheet name="Shipment200" sheetId="200" state="visible" r:id="rId200"/>
+    <sheet name="Sheet" sheetId="201" state="visible" r:id="rId201"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>盒子1</t>
+  </si>
+  <si>
+    <t>盒子2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,16 +255,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,13 +551,4633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s"/>
+      <c r="B2" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s"/>
+      <c r="B2" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s"/>
+      <c r="B2" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet195.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet196.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet197.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet198.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet199.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet200.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet201.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s"/>
+      <c r="B2" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s"/>
+      <c r="B1" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>